--- a/Result/05-10-24/NASDAQstock_05-10-24period252RS90.xlsx
+++ b/Result/05-10-24/NASDAQstock_05-10-24period252RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/05-10-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFACEF71-CA06-744C-85EE-3802A907C8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258A3D5B-0B8A-9F48-889A-1B2ADA98292B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="260">
   <si>
     <t>Stock</t>
   </si>
@@ -797,6 +797,10 @@
   </si>
   <si>
     <t>OSCR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internet Content &amp; Information</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -834,7 +838,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -844,6 +848,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,13 +885,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1186,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1309,116 +1322,116 @@
       </c>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>96.413043478260875</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>3353</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>65.09</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>1.78</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6">
         <v>1.68</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="6">
         <v>63.7</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="6">
         <v>61.41799964904785</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="6">
         <v>61.371999969482417</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="6">
         <v>52.316599922180167</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="6">
         <v>1.04</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="6">
         <v>1.04</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6">
         <v>3</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="6">
         <v>11</v>
       </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6">
         <v>13.888888888888889</v>
       </c>
-      <c r="S2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="V2" s="2">
+      <c r="S2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" s="6">
         <v>27.46</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="6">
         <v>67.11</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="6">
         <v>3.6</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="6">
         <v>1567.07</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="6">
         <v>250.59</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="6">
         <v>20.94</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="6">
         <v>-15.04</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="6">
         <v>-61.56</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2" s="6">
         <v>2406.67</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AI2" s="6">
         <v>5.77</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AJ2" s="6">
         <v>6.5</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AK2" s="6">
         <v>12.65</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2" s="6">
         <v>63.780825426796149</v>
       </c>
     </row>
@@ -1667,10 +1680,10 @@
       <c r="D5">
         <v>242.99</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>2.36</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>6.31</v>
       </c>
       <c r="G5">
@@ -1868,7 +1881,7 @@
         <v>58</v>
       </c>
       <c r="AH6" t="s">
-        <v>59</v>
+        <v>259</v>
       </c>
       <c r="AI6">
         <v>2.5299999999999998</v>
@@ -2223,230 +2236,230 @@
       </c>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="6">
         <v>94.208074534161483</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>1026</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>17.29</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="6">
         <v>2.2200000000000002</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="6">
         <v>2.1800000000000002</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="6">
         <v>17.486000442504881</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="6">
         <v>17.472500228881831</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="6">
         <v>17.122400150299072</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="6">
         <v>14.740600051879881</v>
       </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
         <v>1.02</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="V10" s="2">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" s="6">
         <v>8.43</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="6">
         <v>18.850000000000001</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="6">
         <v>3.55</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Y10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="Z10" s="6">
         <v>139.62</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA10" s="6">
         <v>8609.68</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AB10" s="6">
         <v>4.99</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AC10" s="6">
         <v>-63.83</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10" s="6">
         <v>1275</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AE10" s="6">
         <v>-500</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AF10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AG10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AH10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI10" s="2">
+      <c r="AI10" s="6">
         <v>0.88</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AJ10" s="6">
         <v>1.47</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AK10" s="6">
         <v>67.05</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="AL10" s="6">
         <v>44.927795239640488</v>
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="6">
         <v>97.212732919254663</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>15</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6">
         <v>40.01</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="6">
         <v>3.39</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="6">
         <v>3.37</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="6">
         <v>38.08000030517578</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="6">
         <v>36.70950012207031</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="6">
         <v>32.401400108337413</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="6">
         <v>24.879599962234501</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="6">
         <v>1.04</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="6">
         <v>1.18</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
+      <c r="M11" s="6"/>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>6</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="6">
         <v>10</v>
       </c>
-      <c r="S11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="V11" s="2">
+      <c r="S11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V11" s="6">
         <v>14.48</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="6">
         <v>40.29</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="6">
         <v>89.6</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="Y11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="Z11" s="6">
         <v>42.41</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AA11" s="6">
         <v>348.39</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11" s="6">
         <v>11.55</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AC11" s="6">
         <v>20</v>
       </c>
-      <c r="AD11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="2">
+      <c r="AD11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="6">
         <v>66.67</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AF11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AG11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AH11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AI11" s="6">
         <v>0.17</v>
       </c>
-      <c r="AJ11" s="2">
+      <c r="AJ11" s="6">
         <v>0.43</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="AK11" s="6">
         <v>152.94</v>
       </c>
-      <c r="AL11" s="2">
+      <c r="AL11" s="6">
         <v>44.345473613132739</v>
       </c>
     </row>
@@ -3239,115 +3252,116 @@
       </c>
     </row>
     <row r="19" spans="1:38">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>91.079192546583855</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>857</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>255.36</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>0.98</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>1.47</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>254.01799926757809</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>254.254500579834</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>240.95860046386721</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>208.3047003936768</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
         <v>1.05</v>
       </c>
-      <c r="N19">
+      <c r="M19" s="2"/>
+      <c r="N19" s="2">
         <v>8</v>
       </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
         <v>5.5555555555555554</v>
       </c>
-      <c r="S19" t="b">
-        <v>1</v>
-      </c>
-      <c r="T19" t="b">
-        <v>1</v>
-      </c>
-      <c r="U19" t="b">
-        <v>1</v>
-      </c>
-      <c r="V19">
+      <c r="S19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19" s="2">
         <v>141.72999999999999</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="2">
         <v>260.45999999999998</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="2">
         <v>149.59</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="2">
         <v>8.09</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="2">
         <v>113.84</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="2">
         <v>335.48</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="2">
         <v>34.450000000000003</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="2">
         <v>-36.96</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="2">
         <v>16.52</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="2">
         <v>78.42</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AF19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AG19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AH19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" s="2">
         <v>11.67</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" s="2">
         <v>13.11</v>
       </c>
-      <c r="AK19">
+      <c r="AK19" s="2">
         <v>12.34</v>
       </c>
-      <c r="AL19">
+      <c r="AL19" s="2">
         <v>40.131334181147473</v>
       </c>
     </row>
@@ -3703,10 +3717,10 @@
       <c r="D23">
         <v>20.29</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>3.8</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>5.18</v>
       </c>
       <c r="G23">
@@ -4045,7 +4059,7 @@
       <c r="E26" s="2">
         <v>2.73</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>4.13</v>
       </c>
       <c r="G26" s="2">
@@ -5958,229 +5972,230 @@
       </c>
     </row>
     <row r="43" spans="1:38">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="6">
         <v>96.979813664596264</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="6">
         <v>1858</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="6">
         <v>51.89</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="6">
         <v>1.32</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="6">
         <v>1.84</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="6">
         <v>50.679999542236331</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="6">
         <v>49.366999816894527</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="6">
         <v>47.897200088500973</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="6">
         <v>37.243999996185302</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="6">
         <v>1.03</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="6">
         <v>1.06</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2">
-        <v>0</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0</v>
-      </c>
-      <c r="P43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0</v>
-      </c>
-      <c r="R43" s="2">
-        <v>0</v>
-      </c>
-      <c r="S43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="V43" s="2">
+      <c r="M43" s="6"/>
+      <c r="N43" s="6">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
+        <v>0</v>
+      </c>
+      <c r="P43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>0</v>
+      </c>
+      <c r="R43" s="6">
+        <v>0</v>
+      </c>
+      <c r="S43" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T43" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U43" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V43" s="6">
         <v>19.559999999999999</v>
       </c>
-      <c r="W43" s="2">
+      <c r="W43" s="6">
         <v>52.1</v>
       </c>
-      <c r="X43" s="2">
+      <c r="X43" s="6">
         <v>5.43</v>
       </c>
-      <c r="Y43" s="2">
+      <c r="Y43" s="6">
         <v>13.76</v>
       </c>
-      <c r="Z43" s="2">
+      <c r="Z43" s="6">
         <v>38.1</v>
       </c>
-      <c r="AA43" s="2">
+      <c r="AA43" s="6">
         <v>569.95000000000005</v>
       </c>
-      <c r="AB43" s="2">
+      <c r="AB43" s="6">
         <v>15.25</v>
       </c>
-      <c r="AC43" s="2">
+      <c r="AC43" s="6">
         <v>514.29</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AD43" s="6">
         <v>-106.19</v>
       </c>
-      <c r="AE43" s="2">
+      <c r="AE43" s="6">
         <v>222.86</v>
       </c>
-      <c r="AF43" s="2" t="s">
+      <c r="AF43" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AG43" s="2" t="s">
+      <c r="AG43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AH43" s="2" t="s">
+      <c r="AH43" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AI43" s="2">
+      <c r="AI43" s="6">
         <v>1.7</v>
       </c>
-      <c r="AJ43" s="2">
+      <c r="AJ43" s="6">
         <v>1.95</v>
       </c>
-      <c r="AK43" s="2">
+      <c r="AK43" s="6">
         <v>14.71</v>
       </c>
-      <c r="AL43" s="2">
+      <c r="AL43" s="6">
         <v>28.383202653920112</v>
       </c>
     </row>
     <row r="44" spans="1:38">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>96.855590062111801</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>2400</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>159.88999999999999</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>2.19</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <v>2.88</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <v>157.89000244140621</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <v>150.83499984741209</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <v>144.6803997802734</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="2">
         <v>99.543800010681153</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="2">
         <v>1.05</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
+      <c r="M44" s="2"/>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
         <v>2</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="2">
         <v>3.333333333333333</v>
       </c>
-      <c r="S44" t="b">
-        <v>1</v>
-      </c>
-      <c r="T44" t="b">
-        <v>1</v>
-      </c>
-      <c r="U44" t="b">
-        <v>1</v>
-      </c>
-      <c r="V44">
+      <c r="S44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V44" s="2">
         <v>58.87</v>
       </c>
-      <c r="W44">
+      <c r="W44" s="2">
         <v>166.51</v>
       </c>
-      <c r="X44">
+      <c r="X44" s="2">
         <v>7.99</v>
       </c>
-      <c r="Y44">
+      <c r="Y44" s="2">
         <v>1.52</v>
       </c>
-      <c r="Z44">
+      <c r="Z44" s="2">
         <v>37.590000000000003</v>
       </c>
-      <c r="AA44">
+      <c r="AA44" s="2">
         <v>138.33000000000001</v>
       </c>
-      <c r="AB44">
+      <c r="AB44" s="2">
         <v>12.3</v>
       </c>
-      <c r="AC44">
+      <c r="AC44" s="2">
         <v>1458.33</v>
       </c>
-      <c r="AD44">
+      <c r="AD44" s="2">
         <v>-86.05</v>
       </c>
-      <c r="AE44">
+      <c r="AE44" s="2">
         <v>-3.37</v>
       </c>
-      <c r="AF44" t="s">
+      <c r="AF44" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AG44" t="s">
+      <c r="AG44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AH44" t="s">
+      <c r="AH44" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AI44">
+      <c r="AI44" s="2">
         <v>3.69</v>
       </c>
-      <c r="AJ44">
+      <c r="AJ44" s="2">
         <v>7.98</v>
       </c>
-      <c r="AK44">
+      <c r="AK44" s="2">
         <v>116.26</v>
       </c>
-      <c r="AL44">
+      <c r="AL44" s="2">
         <v>28.206011061659328</v>
       </c>
     </row>
@@ -11049,116 +11064,116 @@
       </c>
     </row>
     <row r="88" spans="1:38">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="6">
         <v>95.357142857142861</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="6">
         <v>445</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="6">
         <v>9.4</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="6">
         <v>2.91</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="6">
         <v>3.4</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G88" s="6">
         <v>9.3159997940063484</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H88" s="6">
         <v>8.217499923706054</v>
       </c>
-      <c r="I88" s="2">
+      <c r="I88" s="6">
         <v>7.8805999851226796</v>
       </c>
-      <c r="J88" s="2">
+      <c r="J88" s="6">
         <v>7.4983999776840209</v>
       </c>
-      <c r="K88" s="2">
+      <c r="K88" s="6">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L88" s="2">
+      <c r="L88" s="6">
         <v>1.18</v>
       </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2">
-        <v>0</v>
-      </c>
-      <c r="O88" s="2">
-        <v>0</v>
-      </c>
-      <c r="P88" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="2">
-        <v>0</v>
-      </c>
-      <c r="R88" s="2">
-        <v>0</v>
-      </c>
-      <c r="S88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="V88" s="2">
+      <c r="M88" s="6"/>
+      <c r="N88" s="6">
+        <v>0</v>
+      </c>
+      <c r="O88" s="6">
+        <v>0</v>
+      </c>
+      <c r="P88" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="6">
+        <v>0</v>
+      </c>
+      <c r="R88" s="6">
+        <v>0</v>
+      </c>
+      <c r="S88" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T88" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U88" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V88" s="6">
         <v>3.94</v>
       </c>
-      <c r="W88" s="2">
+      <c r="W88" s="6">
         <v>10.49</v>
       </c>
-      <c r="X88" s="2">
+      <c r="X88" s="6">
         <v>3.7</v>
       </c>
-      <c r="Y88" s="2">
+      <c r="Y88" s="6">
         <v>-8.17</v>
       </c>
-      <c r="Z88" s="2">
+      <c r="Z88" s="6">
         <v>59.31</v>
       </c>
-      <c r="AA88" s="2">
+      <c r="AA88" s="6">
         <v>17.88</v>
       </c>
-      <c r="AB88" s="2">
+      <c r="AB88" s="6">
         <v>3.64</v>
       </c>
-      <c r="AC88" s="2">
+      <c r="AC88" s="6">
         <v>-200</v>
       </c>
-      <c r="AD88" s="2">
+      <c r="AD88" s="6">
         <v>-58.33</v>
       </c>
-      <c r="AE88" s="2">
+      <c r="AE88" s="6">
         <v>-7.69</v>
       </c>
-      <c r="AF88" s="2" t="s">
+      <c r="AF88" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="AG88" s="2" t="s">
+      <c r="AG88" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH88" s="2" t="s">
+      <c r="AH88" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="AI88" s="2">
+      <c r="AI88" s="6">
         <v>0.27</v>
       </c>
-      <c r="AJ88" s="2">
+      <c r="AJ88" s="6">
         <v>0.82</v>
       </c>
-      <c r="AK88" s="2">
+      <c r="AK88" s="6">
         <v>203.7</v>
       </c>
-      <c r="AL88" s="2">
+      <c r="AL88" s="6">
         <v>15.548412439484331</v>
       </c>
     </row>
